--- a/Documents/Ejemplo Condensado Obj-Act-Entregables.xlsx
+++ b/Documents/Ejemplo Condensado Obj-Act-Entregables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 UPB Pregrado\UPB-2018-10\Algoritmos\Proyecto de Aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\Github\Stegonomono\Stegonomono\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9AA32A-54F5-4DDF-9B0B-744DD3238939}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BD831-F8B8-47AD-96E6-717454852D34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>FORMATO CONDENSADO DEL PROYECTO DE AULA / INTEGRADOR</t>
   </si>
@@ -45,26 +45,13 @@
     <t>TÍTULO DE LA PROPUESTA:</t>
   </si>
   <si>
-    <t>Detección de fraude en transacciones con tarjetas de crédito mediante redes neuronales</t>
-  </si>
-  <si>
     <t>AUTOR</t>
   </si>
   <si>
-    <t>PEPITO PEREZ Y JUANITA DIAZ</t>
-  </si>
-  <si>
     <t>PREGUNTA DE INVESTIGACIÓN</t>
   </si>
   <si>
-    <t>¿Cómo detectar transacciones fraudulentas con tarjetas de crédito, utilizando redes neuronales?
-¿Qué complejidad temporal pueden presentar los algoritmos empleados en esta detección?</t>
-  </si>
-  <si>
     <t>OBJETIVO GENERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar la complejidad temporal de algoritmos de redes neuronales, desde el enfoque teórico y empírico, a partir redes neuronales modeladas para la detección de fraude en transacciones con tarjetas de crédito con el fin de fortalecer habilidades de análisis algorítmico a partir de situaciones cotidianas abordadas por algoritmos de clasificación. </t>
   </si>
   <si>
     <t>OBJETIVOS ESPECIFICOS</t>
@@ -87,59 +74,107 @@
     <t>ENTREGABLES</t>
   </si>
   <si>
-    <t>Objetivo 1: Determinar las características de un algoritmo de detección de fraude en tarjetas de crédito mediante el modelo de redes neuronales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad 1.1. : Lectura e investigación sobre las redes neuronales y su aplicabilidad para la detección de fraude en tarjetas de crédito. </t>
+    <t>Actividad 2.4: Validar la correcta ejecución del algoritmo con el conjunto de datos de prueba</t>
+  </si>
+  <si>
+    <t>Objetivo 4: Socializar los resultados del proyecto</t>
+  </si>
+  <si>
+    <t>Actividad 4.1. : Documentar el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>Actividad 4.2. : Presentar los resultados en la Jornada de Socialización de Proyectos Integradores y de Aula</t>
+  </si>
+  <si>
+    <t>Actividad 4.3. : Elaborar un video de máximo tres minutos sobre el proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad 4.4. :  </t>
+  </si>
+  <si>
+    <t>STEGONOMONO: A WEBSITE FOR DETECTING STEGANOGRAPHY ON MONOCHROMATIC IMAGES</t>
+  </si>
+  <si>
+    <t>ALBERTO GARCÍA, ANA MOJICA Y GERMÁN MORALES</t>
+  </si>
+  <si>
+    <t>¿Cómo crear un API público para verificar la existencia de esteganografía LSB en imágenes monocromáticas de un tamaño determinado?</t>
+  </si>
+  <si>
+    <t>Desarrollar una plataforma web que sirva un API público para detección de esteganografía en imágenes monocromáticas mediante redes neuronales, para mejorar la seguridad en plataformas a las que se puedan subir imágenes.</t>
+  </si>
+  <si>
+    <t>Objetivo 2: Modelar una red neuronal para reconocer esteganografía en imágenes monocromáticas de un tamaño específico.</t>
+  </si>
+  <si>
+    <t>Objetivo 3: Implementar la IA desarrollada en una plataforma web que sirva APIs públicas para la detección de esteganografía en imágenes monocromáticas.</t>
+  </si>
+  <si>
+    <t>Objetivo 1: Determinar las características de una red neuronal para reconocer esteganografía en imágenes monocromáticas.</t>
   </si>
   <si>
     <t>Documento resumen de las redes neuronales, y los algoritmos con esta técnica.
-Documento resumen con las cacterísticas de las transacciones con tarjetas de crédito, y las que podrían ser fraudulentas.</t>
-  </si>
-  <si>
-    <t>Actividad 1.2. : Caracterizar las transacciones con tarjetas de crédito, y cómo se distinguen las transacciones válidas de aquellas que se presumen fraudulentas</t>
-  </si>
-  <si>
-    <t>Objetivo 2: Desarrollar el algoritmo desde el modelo de las redes neuronales para la detección de fraude en tarjetas de crédito</t>
-  </si>
-  <si>
-    <t>Actividad 2.1. : Diseñar el algoritmo con enfoque de redes neuronales que permita clasificar transacciones con tarjeta de crédito como válidas o fraudulentas</t>
-  </si>
-  <si>
-    <t>Actividad 2.2. : Conformar un con conjunto de datos de prueba de transacciones con tarjetas de crédito, que permitan validar el algoritmo de clasificación de fraude</t>
-  </si>
-  <si>
-    <t>Actividad 2.3. : Implementar el algoritmo con enfoque de redes neuronales para clasificación de transacciones de tarjetas de crédito</t>
-  </si>
-  <si>
-    <t>Actividad 2.4: Validar la correcta ejecución del algoritmo con el conjunto de datos de prueba</t>
-  </si>
-  <si>
-    <t>Objetivo 3: Estimar la complejidad temporal del algoritmo desarrollado utilizando tanto enfoque teórico como empírico</t>
-  </si>
-  <si>
-    <t>Actividad 3.1. : Estimar la complejidad temporal del algoritmo a partir del enfoque teórico</t>
-  </si>
-  <si>
-    <t>Actividad 3.2. : Estimar la complejidad temporal del algoritmo mediante el enfoque empírico</t>
-  </si>
-  <si>
-    <t>Actividad 3.3. : Contrastar los análisis de complejidad temporal</t>
-  </si>
-  <si>
-    <t>Objetivo 4: Socializar los resultados del proyecto</t>
-  </si>
-  <si>
-    <t>Actividad 4.1. : Documentar el desarrollo del proyecto</t>
-  </si>
-  <si>
-    <t>Actividad 4.2. : Presentar los resultados en la Jornada de Socialización de Proyectos Integradores y de Aula</t>
-  </si>
-  <si>
-    <t>Actividad 4.3. : Elaborar un video de máximo tres minutos sobre el proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad 4.4. :  </t>
+Documento resumen con las cacterísticas de la esteganografía en imágenes monocromáticas.</t>
+  </si>
+  <si>
+    <t>Actividad 1.1. :Lectura e investigación sobre las redes neuronales y su aplicabilidad para la detección de esteganografía en imágenes monocromáticas.</t>
+  </si>
+  <si>
+    <t>Set de datos, red neuronal con más del 90% de precisión y documentación sobre su creación</t>
+  </si>
+  <si>
+    <t>Actividad 1.2. :Caracterizar los procesos de esteganografía en imágenes monocromáticas y sus diferencias con imágenes libres de esteganografía.</t>
+  </si>
+  <si>
+    <t>Actividad 2.1. : Diseñar el algoritmo con enfoque de redes neuronales que permita clasificar imagenes monoromáticas con y sin esteganografía.</t>
+  </si>
+  <si>
+    <t>Actividad 2.3. : Implementar el algoritmo con enfoque de redes neuronales para clasificación de imágenes monocromáticas con esteganografía</t>
+  </si>
+  <si>
+    <t>Actividad 3.3. : Implementar el servicio de APIs dentro del proyecto web</t>
+  </si>
+  <si>
+    <t>Actividad 3.1. : Diseñar el servicio web que contendrá y servirá la API</t>
+  </si>
+  <si>
+    <t>Actividad 3.2. : Acoplar la IA en una API para servir</t>
+  </si>
+  <si>
+    <t>Actividad 2.2. : Conformar un conjunto de datos de prueba de imágenes monocromáticas con esteganografía, que permitan entrenar la rede neuronal.</t>
+  </si>
+  <si>
+    <t>Documentación sobre la API implementada en el sitio web, sitio web funcional para servir APIs públicas, implementación de la IA en el sitio web</t>
+  </si>
+  <si>
+    <t>Octubre 18, 2019</t>
+  </si>
+  <si>
+    <t>Octubre 25, 2019</t>
+  </si>
+  <si>
+    <t>Octubre 21, 2019</t>
+  </si>
+  <si>
+    <t>Julio 29, 2019</t>
+  </si>
+  <si>
+    <t>Agosto 12, 2019</t>
+  </si>
+  <si>
+    <t>Agosto 31, 2019</t>
+  </si>
+  <si>
+    <t>Septiembre 30, 2019</t>
+  </si>
+  <si>
+    <t>Octubre 4, 2019</t>
+  </si>
+  <si>
+    <t>Octubre 6, 2019</t>
+  </si>
+  <si>
+    <t>Octubre 10, 2019</t>
   </si>
 </sst>
 </file>
@@ -149,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +230,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -527,13 +568,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,11 +864,11 @@
   </sheetPr>
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
@@ -836,7 +880,7 @@
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="21" customHeight="1">
+    <row r="1" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -846,7 +890,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="2:8" ht="21" customHeight="1">
+    <row r="2" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -856,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="77.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:8" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
@@ -866,221 +910,297 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="2:8" ht="42" customHeight="1" thickBot="1">
+    <row r="6" spans="2:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="2:8" ht="43.5" customHeight="1" thickBot="1">
+    <row r="7" spans="2:8" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="2:8" ht="22.5">
+    <row r="8" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="25.5" customHeight="1">
+    </row>
+    <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="36" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="2:8" ht="41.25" customHeight="1">
+    <row r="11" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="2:8" ht="38.25" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="2:8" ht="25.5" customHeight="1">
+    <row r="13" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="12">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:8" ht="25.5" customHeight="1">
+    <row r="14" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="2:8" ht="25.5" customHeight="1">
+    <row r="15" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="2:8" ht="25.5" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="2:7" ht="25.5" customHeight="1">
+    <row r="17" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="2:7" ht="25.5" customHeight="1">
+    <row r="18" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="2:7" ht="25.5" customHeight="1">
+    <row r="19" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="2:7" ht="25.5" customHeight="1">
+    <row r="20" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="2:7" ht="25.5" customHeight="1">
+    <row r="21" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="2:7" ht="25.5" customHeight="1"/>
-    <row r="23" spans="2:7" ht="25.5" customHeight="1"/>
-    <row r="24" spans="2:7" ht="25.5" customHeight="1"/>
-    <row r="25" spans="2:7" ht="25.5" customHeight="1"/>
-    <row r="26" spans="2:7" ht="25.5" customHeight="1"/>
+    <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B1:G1"/>
@@ -1098,6 +1218,7 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="G11:G14"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.52" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
@@ -1105,6 +1226,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B405641A4DB524EB7C3E51D2B6B11AC" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffbdf6b3034d397fb750572c6340d0a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
     <xsd:element name="properties">
@@ -1218,29 +1354,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4855B92D-89DA-4B71-89BE-1606CBE01CD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830DECDF-9D94-48C6-9866-8AB450188681}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D967EEF7-DF32-469A-B3A5-5D689032B6C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D967EEF7-DF32-469A-B3A5-5D689032B6C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830DECDF-9D94-48C6-9866-8AB450188681}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4855B92D-89DA-4B71-89BE-1606CBE01CD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>